--- a/assets uarm/2019 sol-penscri-justfilpol/cronograma clases justflpol2019b.xlsx
+++ b/assets uarm/2019 sol-penscri-justfilpol/cronograma clases justflpol2019b.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t xml:space="preserve">Cronograma </t>
   </si>
@@ -123,6 +123,42 @@
   </si>
   <si>
     <t>Nussbaum/Butler</t>
+  </si>
+  <si>
+    <t>Controles</t>
+  </si>
+  <si>
+    <t>Justicia como "agón", McEntyre: Justicia/racionalidad, tras la virtud</t>
+  </si>
+  <si>
+    <t>Berlin vs Totalitarismo. Libertad metafísica, libertad social</t>
+  </si>
+  <si>
+    <t>Adorno critica a Hegel: totalitarismo en Berlin</t>
+  </si>
+  <si>
+    <t>2 conceptos de libertad: fin de lectura comunitaria</t>
+  </si>
+  <si>
+    <t>Introducción a Rawls</t>
+  </si>
+  <si>
+    <t>Debate sobre el liberalismo político: fin de lectura comunitaria</t>
+  </si>
+  <si>
+    <t>liberalismo procedimental</t>
+  </si>
+  <si>
+    <t>La fragilidad del bien / las frontertas de la justicia</t>
+  </si>
+  <si>
+    <t>teoria performativa</t>
+  </si>
+  <si>
+    <t>cuerpos que importan</t>
+  </si>
+  <si>
+    <t>lectura por definir: fin de lectura comunitaria</t>
   </si>
 </sst>
 </file>
@@ -456,18 +492,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="72.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,12 +512,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -490,8 +527,11 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -501,8 +541,11 @@
       <c r="C5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -512,8 +555,11 @@
       <c r="C6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -523,8 +569,11 @@
       <c r="C7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -534,8 +583,11 @@
       <c r="C8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -545,11 +597,11 @@
       <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -559,8 +611,11 @@
       <c r="C10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -570,8 +625,11 @@
       <c r="C11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -582,7 +640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -592,8 +650,11 @@
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -603,11 +664,11 @@
       <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -617,8 +678,11 @@
       <c r="C15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -626,10 +690,13 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -639,8 +706,11 @@
       <c r="C17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -650,8 +720,11 @@
       <c r="C18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -661,11 +734,11 @@
       <c r="C19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
